--- a/02_MasterWifoMannheim/99_Backup/Course120.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course120.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD32051265F59281159DA0871588DFEA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F147532-DD9E-4AF2-BBF5-5258863A306F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 657 Global Strategic Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Corporate activities that take place in multiple countries and/or are integrated across bordersinvolve a substantial degree of managerial complexity. centers on the specific managerial challenges and choices associated with a firm’s cross- outcomes of firms’ internationalization processes. This includes, among others, a discussion of firms’ market entry and exit strategies, the critical reflection on common managerial practices (i.e., cross-border common managerial dilemmas (e.g., localization vs. global standardization) in the global business context.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Student will acquire and demonstrate expert knowledge in the specific subject of strategic management from a global perspective. Students will be able to apply and critically reflect upon contemporary theories, models and tools primarily discussed in global strategic management research and practice. When analyzing business cases, students will be able to identify sound solutions and have good understanding of their impact from a global perspective. Students will be able to design and deliver professional and effective presentations of their own solutions to business cases in the field of global strategic management.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-studyLecture 2 8 Exercise class 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam and assignment/presentation in exercise class</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Matthias Brauer</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
-  </si>
-  <si>
-    <t>MAN 655</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MAN 657 Global Strategic Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Corporate activities that take place in multiple countries and/or are integrated across bordersinvolve a substantial degree of managerial complexity. centers on the specific managerial challenges and choices associated with a firm’s cross- outcomes of firms’ internationalization processes. This includes, among others, a discussion of firms’ market entry and exit strategies, the critical reflection on common managerial practices (i.e., cross-border common managerial dilemmas (e.g., localization vs. global standardization) in the global business context.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Student will acquire and demonstrate expert knowledge in the specific subject of strategic management from a global perspective. Students will be able to apply and critically reflect upon contemporary theories, models and tools primarily discussed in global strategic management research and practice. When analyzing business cases, students will be able to identify sound solutions and have good understanding of their impact from a global perspective. Students will be able to design and deliver professional and effective presentations of their own solutions to business cases in the field of global strategic management.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MAN 655</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:Website of the chair / “Student Portal” (more information about the registration process is available here)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-studyLecture 2 8 Exercise class 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam and assignment/presentation in exercise class</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Matthias Brauer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Inf., M.Sc. Bus. Edu., LL.M., M.Sc. Econ., M.A. K&amp;W</t>
+        </is>
       </c>
     </row>
   </sheetData>
